--- a/results/实验.xlsx
+++ b/results/实验.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10090" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="眼在手上" sheetId="1" r:id="rId1"/>
+    <sheet name="眼在手外" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>每30个一组，随机抽样测试500组的最后结果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,46 @@
   </si>
   <si>
     <t>translation noise mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每30个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每20个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每15个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每9个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每8个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每7个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每6个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每4个一组，随机抽样测试300组的最后结果：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5个一组，随机抽样测试300组的最后结果：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
-      <selection activeCell="K95" sqref="K95"/>
+    <sheetView topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="H67" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2271,6 +2311,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
     <mergeCell ref="Q74:R74"/>
     <mergeCell ref="O75:P75"/>
     <mergeCell ref="Q75:R75"/>
@@ -2279,18 +2331,6 @@
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="M75:N75"/>
     <mergeCell ref="O74:P74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:K50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,13 +2340,1491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B7:W107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.08203125" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="19" width="23.08203125" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="E10">
+        <v>5.9465000000000003</v>
+      </c>
+      <c r="F10">
+        <v>4.5636999999999999</v>
+      </c>
+      <c r="G10">
+        <v>3.8123</v>
+      </c>
+      <c r="I10">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="J10">
+        <v>5.7998000000000003</v>
+      </c>
+      <c r="K10">
+        <v>4.3619000000000003</v>
+      </c>
+      <c r="L10">
+        <v>3.8224999999999998</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>138.66414499999999</v>
+      </c>
+      <c r="R10">
+        <f>Q10/500</f>
+        <v>0.27732828999999998</v>
+      </c>
+      <c r="S10">
+        <f>R10/P10</f>
+        <v>9.2442763333333323E-3</v>
+      </c>
+      <c r="T10">
+        <v>8.3059999999999992</v>
+      </c>
+      <c r="U10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="E11">
+        <v>7.6067</v>
+      </c>
+      <c r="F11">
+        <v>5.8460000000000001</v>
+      </c>
+      <c r="G11">
+        <v>4.8669000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="J11">
+        <v>7.7656000000000001</v>
+      </c>
+      <c r="K11">
+        <v>5.9328000000000003</v>
+      </c>
+      <c r="L11">
+        <v>5.0106999999999999</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11">
+        <v>126.062972</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11:R19" si="0">Q11/500</f>
+        <v>0.25212594399999999</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11:S19" si="1">R11/P11</f>
+        <v>1.26062972E-2</v>
+      </c>
+      <c r="T11">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="U11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>1.0224</v>
+      </c>
+      <c r="E12">
+        <v>9.8036999999999992</v>
+      </c>
+      <c r="F12">
+        <v>7.5898000000000003</v>
+      </c>
+      <c r="G12">
+        <v>6.2054</v>
+      </c>
+      <c r="I12">
+        <v>1.1187</v>
+      </c>
+      <c r="J12">
+        <v>10.1149</v>
+      </c>
+      <c r="K12">
+        <v>7.9032999999999998</v>
+      </c>
+      <c r="L12">
+        <v>6.3125999999999998</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>32.703907000000001</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>6.5407814000000009E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>4.3605209333333339E-3</v>
+      </c>
+      <c r="T12">
+        <v>8.43</v>
+      </c>
+      <c r="U12">
+        <v>1.13828</v>
+      </c>
+      <c r="V12">
+        <v>13</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13">
+        <v>1.2173</v>
+      </c>
+      <c r="E13">
+        <v>12.818300000000001</v>
+      </c>
+      <c r="F13">
+        <v>8.8539999999999992</v>
+      </c>
+      <c r="G13">
+        <v>9.2690999999999999</v>
+      </c>
+      <c r="I13">
+        <v>1.2583</v>
+      </c>
+      <c r="J13">
+        <v>13.0799</v>
+      </c>
+      <c r="K13">
+        <v>9.1765000000000008</v>
+      </c>
+      <c r="L13">
+        <v>9.3207000000000004</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>14.129196</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>2.8258392E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>2.8258392000000002E-3</v>
+      </c>
+      <c r="T13">
+        <v>8.4779999999999998</v>
+      </c>
+      <c r="U13">
+        <v>1.13317</v>
+      </c>
+      <c r="V13">
+        <v>13</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>1.4520999999999999</v>
+      </c>
+      <c r="E14">
+        <v>13.997999999999999</v>
+      </c>
+      <c r="F14">
+        <v>10.6738</v>
+      </c>
+      <c r="G14">
+        <v>9.0561000000000007</v>
+      </c>
+      <c r="I14">
+        <v>1.4569000000000001</v>
+      </c>
+      <c r="J14">
+        <v>14.4221</v>
+      </c>
+      <c r="K14">
+        <v>11.0623</v>
+      </c>
+      <c r="L14">
+        <v>9.2531999999999996</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>10.510685</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>2.1021370000000001E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>2.3357077777777777E-3</v>
+      </c>
+      <c r="T14">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="U14">
+        <v>1.11775</v>
+      </c>
+      <c r="V14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>1.4863</v>
+      </c>
+      <c r="E15">
+        <v>15.698700000000001</v>
+      </c>
+      <c r="F15">
+        <v>11.170199999999999</v>
+      </c>
+      <c r="G15">
+        <v>11.0307</v>
+      </c>
+      <c r="I15">
+        <v>1.6839</v>
+      </c>
+      <c r="J15">
+        <v>16.644500000000001</v>
+      </c>
+      <c r="K15">
+        <v>11.937099999999999</v>
+      </c>
+      <c r="L15">
+        <v>11.599299999999999</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>8.7063229999999994</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>1.7412646E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>2.17658075E-3</v>
+      </c>
+      <c r="T15">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="U15">
+        <v>1.1997100000000001</v>
+      </c>
+      <c r="V15">
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>1.9499</v>
+      </c>
+      <c r="E16">
+        <v>22.8598</v>
+      </c>
+      <c r="F16">
+        <v>15.836399999999999</v>
+      </c>
+      <c r="G16">
+        <v>16.485700000000001</v>
+      </c>
+      <c r="I16">
+        <v>2.5758999999999999</v>
+      </c>
+      <c r="J16">
+        <v>25.844200000000001</v>
+      </c>
+      <c r="K16">
+        <v>17.897600000000001</v>
+      </c>
+      <c r="L16">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>6.5487510000000002</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1.3097502E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>1.8710717142857143E-3</v>
+      </c>
+      <c r="T16">
+        <v>8.6620000000000008</v>
+      </c>
+      <c r="U16">
+        <v>1.1706799999999999</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>1.6922999999999999</v>
+      </c>
+      <c r="E17">
+        <v>21.478899999999999</v>
+      </c>
+      <c r="F17">
+        <v>14.001200000000001</v>
+      </c>
+      <c r="G17">
+        <v>16.2883</v>
+      </c>
+      <c r="I17">
+        <v>2.2761999999999998</v>
+      </c>
+      <c r="J17">
+        <v>24.002700000000001</v>
+      </c>
+      <c r="K17">
+        <v>16.531500000000001</v>
+      </c>
+      <c r="L17">
+        <v>17.402200000000001</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>4.9493770000000001</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>9.8987540000000009E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>1.6497923333333336E-3</v>
+      </c>
+      <c r="T17">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="U17">
+        <v>1.1740900000000001</v>
+      </c>
+      <c r="V17">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>2.3382999999999998</v>
+      </c>
+      <c r="E18">
+        <v>65.216899999999995</v>
+      </c>
+      <c r="F18">
+        <v>34.028100000000002</v>
+      </c>
+      <c r="G18">
+        <v>55.635599999999997</v>
+      </c>
+      <c r="I18">
+        <v>6.6557000000000004</v>
+      </c>
+      <c r="J18">
+        <v>118.402</v>
+      </c>
+      <c r="K18">
+        <v>44.131300000000003</v>
+      </c>
+      <c r="L18">
+        <v>109.8702</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>3.567447</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>7.1348940000000001E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>1.4269788E-3</v>
+      </c>
+      <c r="T18">
+        <v>8.8740000000000006</v>
+      </c>
+      <c r="U18">
+        <v>1.4121300000000001</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>24.3858</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1136.0999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>472.8125</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1033.0999999999999</v>
+      </c>
+      <c r="I19">
+        <v>24.9925</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1025.4000000000001</v>
+      </c>
+      <c r="K19" s="2">
+        <v>450.32709999999997</v>
+      </c>
+      <c r="L19" s="2">
+        <v>921.22860000000003</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>3.0062890000000002</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>6.0125780000000002E-3</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>1.5031445E-3</v>
+      </c>
+      <c r="T19">
+        <v>8.99</v>
+      </c>
+      <c r="U19">
+        <v>1.43038</v>
+      </c>
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="T21">
+        <f>AVERAGE(T10:T19)</f>
+        <v>8.5931999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>0.46279999999999999</v>
+      </c>
+      <c r="D41">
+        <v>2.0581</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.63739722001682997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52">
+        <v>0.27007706445393198</v>
+      </c>
+      <c r="E52">
+        <v>7.5356927517143797</v>
+      </c>
+      <c r="F52">
+        <v>2.6698295709581799</v>
+      </c>
+      <c r="G52">
+        <v>7.0468911805332901</v>
+      </c>
+      <c r="H52">
+        <v>0.77678089672039097</v>
+      </c>
+      <c r="I52">
+        <v>26.6775358842226</v>
+      </c>
+      <c r="J52">
+        <v>13.974029797709999</v>
+      </c>
+      <c r="K52">
+        <v>22.724819296678699</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>48</v>
+      </c>
+      <c r="K57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>0.13242701491370601</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1.1966417962309599</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58">
+        <v>3.13017832910253</v>
+      </c>
+      <c r="G58">
+        <v>3.3511144355975002</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <f>G58/H58</f>
+        <v>0.33511144355975003</v>
+      </c>
+      <c r="K58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D59">
+        <v>1.159</v>
+      </c>
+      <c r="E59">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="F59">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G59">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>0.03</v>
+      </c>
+      <c r="J59">
+        <f>G59/H59</f>
+        <v>0.56566666666666665</v>
+      </c>
+      <c r="K59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>0.4</v>
+      </c>
+      <c r="G60">
+        <v>1.7</v>
+      </c>
+      <c r="H60">
+        <v>0.1</v>
+      </c>
+      <c r="I60">
+        <v>0.02</v>
+      </c>
+      <c r="J60">
+        <f>G60/H60</f>
+        <v>17</v>
+      </c>
+      <c r="K60">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.107</v>
+      </c>
+      <c r="F61">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G61">
+        <f>SQRT(D61*D61+E61*E61+F61*F61)</f>
+        <v>0.18176358271116907</v>
+      </c>
+      <c r="H61">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61">
+        <f>G61/0.05</f>
+        <v>3.6352716542233812</v>
+      </c>
+      <c r="K61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="G62">
+        <v>1.77</v>
+      </c>
+      <c r="H62">
+        <v>0.18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62">
+        <f>1.77/0.18</f>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="K62">
+        <v>15984</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="I63">
+        <v>0.08</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.107</v>
+      </c>
+      <c r="D68">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E68">
+        <f>SQRT(B68*B68+C68*C68+D68*D68)</f>
+        <v>0.18176358271116907</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4">
+        <v>2</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4">
+        <v>3</v>
+      </c>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4">
+        <v>4</v>
+      </c>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4">
+        <v>5</v>
+      </c>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0.19943561745345001</v>
+      </c>
+      <c r="F76">
+        <v>5.3845747046993999</v>
+      </c>
+      <c r="G76">
+        <v>0.65617832921457497</v>
+      </c>
+      <c r="H76">
+        <v>8.3222963163617898</v>
+      </c>
+      <c r="I76">
+        <v>1.30071847851793</v>
+      </c>
+      <c r="J76">
+        <v>15.5613640940722</v>
+      </c>
+      <c r="K76">
+        <v>2.1207805032803102</v>
+      </c>
+      <c r="L76">
+        <v>21.820409742326301</v>
+      </c>
+      <c r="M76">
+        <v>2.6339144986354701</v>
+      </c>
+      <c r="N76">
+        <v>28.324058446590701</v>
+      </c>
+      <c r="O76">
+        <v>3.1098321588784898</v>
+      </c>
+      <c r="P76">
+        <v>34.1783302928499</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0.19943561745345001</v>
+      </c>
+      <c r="I85">
+        <v>5.3845747046993999</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0.21607498948705001</v>
+      </c>
+      <c r="I86">
+        <v>5.9685213120392602</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>0.215856201463169</v>
+      </c>
+      <c r="I87">
+        <v>6.9452104295245496</v>
+      </c>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0.19233896312919599</v>
+      </c>
+      <c r="I88">
+        <v>10.0921743583857</v>
+      </c>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>0.204988652435529</v>
+      </c>
+      <c r="I89">
+        <v>12.4163929459244</v>
+      </c>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>0.199209259839768</v>
+      </c>
+      <c r="I90">
+        <v>16.597820327669702</v>
+      </c>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>0.19927409115293299</v>
+      </c>
+      <c r="I91">
+        <v>20.840898053405802</v>
+      </c>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>0.19642836588713</v>
+      </c>
+      <c r="I92">
+        <v>19.276252629475302</v>
+      </c>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="H93">
+        <v>0.20298414885228</v>
+      </c>
+      <c r="I93">
+        <v>22.980666522867399</v>
+      </c>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>0.21003348510366299</v>
+      </c>
+      <c r="I94">
+        <v>28.9696282564007</v>
+      </c>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>0.20117791994276099</v>
+      </c>
+      <c r="I95">
+        <v>27.7887419436504</v>
+      </c>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0.19943561745345001</v>
+      </c>
+      <c r="I97">
+        <v>5.3845747046993999</v>
+      </c>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.61607593481529499</v>
+      </c>
+      <c r="I98">
+        <v>8.7651096986876897</v>
+      </c>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>1.3228779424628501</v>
+      </c>
+      <c r="I99">
+        <v>15.8162210868184</v>
+      </c>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>2.0156076950420698</v>
+      </c>
+      <c r="I100">
+        <v>24.459683744390599</v>
+      </c>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>2.3976005601030002</v>
+      </c>
+      <c r="I101">
+        <v>28.3759859136002</v>
+      </c>
+    </row>
+    <row r="102" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>3.2938580479024</v>
+      </c>
+      <c r="I102">
+        <v>32.500097437839898</v>
+      </c>
+    </row>
+    <row r="103" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>6</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>4.0112363260017396</v>
+      </c>
+      <c r="I103">
+        <v>36.533010769742802</v>
+      </c>
+    </row>
+    <row r="104" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>7</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>4.7434628900629896</v>
+      </c>
+      <c r="I104">
+        <v>52.721763561324401</v>
+      </c>
+    </row>
+    <row r="105" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>8</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>5.1466370463459299</v>
+      </c>
+      <c r="I105">
+        <v>54.995015759259601</v>
+      </c>
+    </row>
+    <row r="106" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>5.1378559970064002</v>
+      </c>
+      <c r="I106">
+        <v>52.979033208767198</v>
+      </c>
+    </row>
+    <row r="107" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>6.56861026534167</v>
+      </c>
+      <c r="I107">
+        <v>61.834606388034203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="D58:E58"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>